--- a/코드/result/answerData/2.xlsx
+++ b/코드/result/answerData/2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\학교\컴퓨터공학종합설계\프로젝트\코드\answerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA034AD0-CD58-4A8F-92D7-28490C5EFAFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,14 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컴퓨터종합설계1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터종합설계2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인간컴퓨터상호작용시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,46 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안종석교수님의 컴퓨터종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석10%, 과제10%, 종합설계보고서80%로 평가돼요. 강의는 Open-end 문제를 해결 할 수 있는 능력을 배양하고 팀원들과의 소통을 할 수 있는 능력과 다양한 도구를 통해 산출된 데이터를 분석할 수 있는 능력을 배양하는 것을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손윤식교수님의 컴퓨터종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석5%, 과제65%, 보고서30%로 평가돼요. 강의는 기존의 수학/기초과학/인문 소양의 이론 또는 공식을 컴퓨팅 분야의 문제해결에 응용하고 기존의 분석법을 적용해 주어진 이론 또는 알고리즘을 프로그래밍을 통해 분석 및 검증할 수 있는 능력과 공학적 문제정의를 위한 구체적이고 논리적인 표현방법을 이해하고 이를 통해 SW 설계문제를 구체적이고 논리적인 공학문제로 재 정의 할 수 있는 능력 배양 등을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정진우교수님의 컴퓨터종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석5%, 과제65%, 보고서30%로 평가돼요. 강의는 기존의 수학/기초과학/인문 소양의 이론 또는 공식을 컴퓨팅 분야의 문제해결에 응용하고 기존의 분석법을 적용해 주어진 이론 또는 알고리즘을 프로그래밍을 통해 분석 및 검증할 수 있는 능력과 공학적 문제정의를 위한 구체적이고 논리적인 표현방법을 이해하고 이를 통해 SW 설계문제를 구체적이고 논리적인 공학문제로 재 정의 할 수 있는 능력 배양 등을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주종화교수님의 컴퓨터종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석5%, 과제65%, 보고서30%로 평가돼요. 강의는 기존의 수학/기초과학/인문 소양의 이론 또는 공식을 컴퓨팅 분야의 문제해결에 응용하고 기존의 분석법을 적용해 주어진 이론 또는 알고리즘을 프로그래밍을 통해 분석 및 검증할 수 있는 능력과 공학적 문제정의를 위한 구체적이고 논리적인 표현방법을 이해하고 이를 통해 SW 설계문제를 구체적이고 논리적인 공학문제로 재 정의 할 수 있는 능력 배양 등을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동호교수님의 컴퓨터종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석10%, 과제60%,태도10%, 발표20%로 평가돼요. 강의는 기존의 수학/기초과학/인문 소양의 이론 또는 공식을 컴퓨팅 분야의 문제해결에 응용하고 기존의 분석법을 적용해 주어진 이론 또는 알고리즘을 프로그래밍을 통해 분석 및 검증할 수 있는 능력과 공학적 문제정의를 위한 구체적이고 논리적인 표현방법을 이해하고 이를 통해 SW 설계문제를 구체적이고 논리적인 공학문제로 재 정의 할 수 있는 능력 배양 등을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동호교수님의 컴퓨터종합설계2 강의는 10%이론수업, 90%토론발표로 이루어져있고 성적은 출석10%, 과제90%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정진우교수님의 컴퓨터종합설계2 강의는 10%이론수업, 90%토론발표로 이루어져있고 성적은 출석5%, 강의참여도5%, 발표32%, 전시회40%, 보고서18%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용규교수님의 컴퓨터종합설계2 강의는 10%이론수업, 70%실험실습, 20%토론발표로 이루어져있고 성적은 출석5%, 과제20%, 수업참여도5%, 중간발표10%, 포트폴리오30%, 희의록10%, 논문20%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손윤식교수님의 컴퓨터종합설계2 강의는 10%이론수업, 90%토론발표로 이루어져있고 성적은 출석5%, 강의참여도5%, 발표32%, 전시회40%, 보고서18%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신연순교수님의 컴퓨터종합설계2 강의는 10%이론수업, 90%토론발표로 이루어져있고 성적은 출석5%, 강의참여도5%, 발표32%, 전시회40%, 보고서18%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정진우교수님의 인간컴퓨터상호작용시스템 강의는 50%이론수업, 50%실습으로 이루어져있고 성적은 출석10%, 중간고사40%, 과제40%, 기타10%로 평가돼요. 강의는 인간컴퓨터상호작용시스템을 이해하고 영상처리 과정을 이애하고 시스템을 설계하는 것을 목표로 진행돼요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1106,12 +1059,48 @@
   <si>
     <t>answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학종합설계1</t>
+  </si>
+  <si>
+    <t>안종석교수님의 컴퓨터공학종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석10%, 과제10%, 종합설계보고서80%로 평가돼요. 강의는 Open-end 문제를 해결 할 수 있는 능력을 배양하고 팀원들과의 소통을 할 수 있는 능력과 다양한 도구를 통해 산출된 데이터를 분석할 수 있는 능력을 배양하는 것을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>손윤식교수님의 컴퓨터공학종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석5%, 과제65%, 보고서30%로 평가돼요. 강의는 기존의 수학/기초과학/인문 소양의 이론 또는 공식을 컴퓨팅 분야의 문제해결에 응용하고 기존의 분석법을 적용해 주어진 이론 또는 알고리즘을 프로그래밍을 통해 분석 및 검증할 수 있는 능력과 공학적 문제정의를 위한 구체적이고 논리적인 표현방법을 이해하고 이를 통해 SW 설계문제를 구체적이고 논리적인 공학문제로 재 정의 할 수 있는 능력 배양 등을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>정진우교수님의 컴퓨터공학종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석5%, 과제65%, 보고서30%로 평가돼요. 강의는 기존의 수학/기초과학/인문 소양의 이론 또는 공식을 컴퓨팅 분야의 문제해결에 응용하고 기존의 분석법을 적용해 주어진 이론 또는 알고리즘을 프로그래밍을 통해 분석 및 검증할 수 있는 능력과 공학적 문제정의를 위한 구체적이고 논리적인 표현방법을 이해하고 이를 통해 SW 설계문제를 구체적이고 논리적인 공학문제로 재 정의 할 수 있는 능력 배양 등을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>주종화교수님의 컴퓨터공학종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석5%, 과제65%, 보고서30%로 평가돼요. 강의는 기존의 수학/기초과학/인문 소양의 이론 또는 공식을 컴퓨팅 분야의 문제해결에 응용하고 기존의 분석법을 적용해 주어진 이론 또는 알고리즘을 프로그래밍을 통해 분석 및 검증할 수 있는 능력과 공학적 문제정의를 위한 구체적이고 논리적인 표현방법을 이해하고 이를 통해 SW 설계문제를 구체적이고 논리적인 공학문제로 재 정의 할 수 있는 능력 배양 등을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>김동호교수님의 컴퓨터공학종합설계1 강의는 10%이론수업, 70%실습, 20%토론발표로 이루어져있고 성적은 출석10%, 과제60%,태도10%, 발표20%로 평가돼요. 강의는 기존의 수학/기초과학/인문 소양의 이론 또는 공식을 컴퓨팅 분야의 문제해결에 응용하고 기존의 분석법을 적용해 주어진 이론 또는 알고리즘을 프로그래밍을 통해 분석 및 검증할 수 있는 능력과 공학적 문제정의를 위한 구체적이고 논리적인 표현방법을 이해하고 이를 통해 SW 설계문제를 구체적이고 논리적인 공학문제로 재 정의 할 수 있는 능력 배양 등을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>컴퓨터공학종합설계2</t>
+  </si>
+  <si>
+    <t>김동호교수님의 컴퓨터공학종합설계2 강의는 10%이론수업, 90%토론발표로 이루어져있고 성적은 출석10%, 과제90%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>정진우교수님의 컴퓨터공학종합설계2 강의는 10%이론수업, 90%토론발표로 이루어져있고 성적은 출석5%, 강의참여도5%, 발표32%, 전시회40%, 보고서18%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>이용규교수님의 컴퓨터공학종합설계2 강의는 10%이론수업, 70%실험실습, 20%토론발표로 이루어져있고 성적은 출석5%, 과제20%, 수업참여도5%, 중간발표10%, 포트폴리오30%, 희의록10%, 논문20%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>손윤식교수님의 컴퓨터공학종합설계2 강의는 10%이론수업, 90%토론발표로 이루어져있고 성적은 출석5%, 강의참여도5%, 발표32%, 전시회40%, 보고서18%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
+  </si>
+  <si>
+    <t>신연순교수님의 컴퓨터공학종합설계2 강의는 10%이론수업, 90%토론발표로 이루어져있고 성적은 출석5%, 강의참여도5%, 발표32%, 전시회40%, 보고서18%로 평가돼요. 강의는 소프트웨어를 개발하는데 필요한 과정을 경험하고 결과를 도출하는데 필요한 능력을 배양하고 보고서 및 특허에 관련된 내용을 이해하는 것을 목표로 진행돼요.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1258,6 +1247,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1293,6 +1299,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1468,11 +1491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1486,13 +1509,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1500,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1511,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1522,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1533,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1544,10 +1567,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1555,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1566,10 +1589,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1577,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1588,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1599,13 +1622,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1613,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1624,10 +1647,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1635,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1646,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1657,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1668,10 +1691,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1679,10 +1702,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1690,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1701,10 +1724,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1712,10 +1735,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1723,10 +1746,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1734,10 +1757,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1745,10 +1768,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1756,10 +1779,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1767,10 +1790,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1778,10 +1801,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1789,10 +1812,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1800,10 +1823,10 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1811,10 +1834,10 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1822,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1833,10 +1856,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1844,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1855,10 +1878,10 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1866,10 +1889,10 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1877,10 +1900,10 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1888,10 +1911,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1899,994 +1922,994 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B98" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C105" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C107" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C110" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B116" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B119" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B125" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B126" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C126" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B127" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B128" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2912,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
